--- a/y.xlsx
+++ b/y.xlsx
@@ -5,7 +5,7 @@
   <workbookPr dateCompatibility="0" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUNTUL\Music\web\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CUNTUL\Music\skrip\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="5" uniqueCount="5">
+<sst xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" count="8" uniqueCount="7">
   <si>
     <t>transaksi_id</t>
   </si>
@@ -35,10 +35,16 @@
     <t>tanggal</t>
   </si>
   <si>
-    <t>kopi gayo,kopi toraja,kopi vietnam,sosis</t>
+    <t>Pena,Roti,Mentega</t>
   </si>
   <si>
-    <t>kopi vietnam,sosis</t>
+    <t>Roti,Mentega,Susu,Telur</t>
+  </si>
+  <si>
+    <t>Buncis,Telur,Susu</t>
+  </si>
+  <si>
+    <t>Roti,Mentega,Kecap,Susu</t>
   </si>
 </sst>
 </file>
@@ -867,17 +873,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://purl.oclc.org/ooxml/spreadsheetml/main" xmlns:r="http://purl.oclc.org/ooxml/officeDocument/relationships" xmlns:v="urn:schemas-microsoft-com:vml" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="28.140625" customWidth="1"/>
-    <col min="2" max="2" width="69.140625" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
@@ -899,7 +905,7 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="d">
-        <v>2027-09-01</v>
+        <v>2021-01-01</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -910,7 +916,40 @@
         <v>4</v>
       </c>
       <c r="C3" s="1" t="d">
-        <v>2027-09-02</v>
+        <v>2021-01-02</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>111003</v>
+      </c>
+      <c r="B4" t="s">
+        <v>5</v>
+      </c>
+      <c r="C4" s="1" t="d">
+        <v>2021-01-03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>111004</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1" t="d">
+        <v>2021-01-04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>111005</v>
+      </c>
+      <c r="B6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="d">
+        <v>2021-01-05</v>
       </c>
     </row>
   </sheetData>
